--- a/common/protocol.xlsx
+++ b/common/protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t xml:space="preserve">url</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t xml:space="preserve">{code: {Number}, msg: {String}, data: {total: {Number} articleTotalNum, data: [{String} article]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getHotTags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{code: {Number}, msg: {String}, data: [{String} tag]</t>
   </si>
   <si>
     <t xml:space="preserve">login</t>
@@ -234,15 +243,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="39.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -416,30 +425,48 @@
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/common/protocol.xlsx
+++ b/common/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t xml:space="preserve">url</t>
   </si>
@@ -112,10 +112,19 @@
     <t xml:space="preserve">getHotTags</t>
   </si>
   <si>
-    <t xml:space="preserve">num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{code: {Number}, msg: {String}, data: [{String} tag]</t>
+    <t xml:space="preserve">num {Number}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{code: {Number}, msg: {String}, data: [{String} tag]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getHotArticles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{code: {Number}, msg: {String}, data: [{String} filename]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getTags</t>
   </si>
   <si>
     <t xml:space="preserve">login</t>
@@ -243,15 +252,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="39.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -443,30 +452,66 @@
       <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
